--- a/Wine_Quality/outputs/train_80_test_20/depth_None/wq_train_80_test_20_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_None/wq_train_80_test_20_depth_None_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.5968379446640316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2653061224489796</v>
+        <v>0.58984375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2988505747126437</v>
+        <v>0.593320235756385</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8766430738119313</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.871356783919598</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.873991935483871</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5934065934065934</v>
+        <v>0.8649193548387096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6328125</v>
+        <v>0.8623115577889447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6124763705103969</v>
+        <v>0.863613487669854</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8015384615384615</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8015384615384615</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8015384615384615</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8015384615384615</v>
+        <v>0.7876923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6040516434588065</v>
+        <v>0.5781615240766713</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5898251354561925</v>
+        <v>0.5860925855895122</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5951062935689705</v>
+        <v>0.5817984206292591</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.800719310961305</v>
+        <v>0.789806852509342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8015384615384615</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.800815080629256</v>
+        <v>0.7887077045921189</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_None/wq_train_80_test_20_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_None/wq_train_80_test_20_depth_None_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5968379446640316</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.58984375</v>
+        <v>0.59</v>
       </c>
       <c r="D2" t="n">
-        <v>0.593320235756385</v>
+        <v>0.59</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.27</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.31</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.29</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8649193548387096</v>
+        <v>0.86</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8623115577889447</v>
+        <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>0.863613487669854</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7876923076923077</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7876923076923077</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7876923076923077</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5781615240766713</v>
+        <v>0.58</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5860925855895122</v>
+        <v>0.59</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5817984206292591</v>
+        <v>0.58</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.789806852509342</v>
+        <v>0.79</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7887077045921189</v>
+        <v>0.79</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
